--- a/data_processed/20250813/BTCUSDVOLSURFACE_REGULARIZED_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDVOLSURFACE_REGULARIZED_20250813.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -34924,7 +34924,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36945,7 +36945,7 @@
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37456,7 +37456,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -37659,7 +37659,7 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38665,7 +38665,7 @@
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38694,7 +38694,7 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38773,7 +38773,7 @@
       </c>
       <c r="G1508" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42698,7 +42698,7 @@
       </c>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42727,7 +42727,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -43775,7 +43775,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250813/BTCUSDVOLSURFACE_REGULARIZED_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDVOLSURFACE_REGULARIZED_20250813.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -22300,7 +22300,7 @@
       </c>
       <c r="G863" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -33897,7 +33897,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34613,7 +34613,7 @@
       </c>
       <c r="G1352" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34642,7 +34642,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34700,7 +34700,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34787,7 +34787,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35507,7 +35507,7 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35536,7 +35536,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35681,7 +35681,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36613,7 +36613,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36642,7 +36642,7 @@
       </c>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36671,7 +36671,7 @@
       </c>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36783,7 +36783,7 @@
       </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37456,7 +37456,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -37485,7 +37485,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37630,7 +37630,7 @@
       </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37742,7 +37742,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38408,7 +38408,7 @@
       </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38437,7 +38437,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38495,7 +38495,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38553,7 +38553,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38636,7 +38636,7 @@
       </c>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41634,7 +41634,7 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41779,7 +41779,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41920,7 +41920,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41949,7 +41949,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42814,7 +42814,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42868,7 +42868,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42976,7 +42976,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43663,7 +43663,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43775,7 +43775,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
